--- a/Fase I - Planeacion y Riesgos/4900 Representaciones de la gerencia/Estados financieros y mayor/Balance de comprobacion dic-21.xlsx
+++ b/Fase I - Planeacion y Riesgos/4900 Representaciones de la gerencia/Estados financieros y mayor/Balance de comprobacion dic-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acontable2\Desktop\DOCUMENTOS CARLOS ALMEIDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase I - Planeacion y Riesgos\4900 Representaciones de la gerencia\Estados financieros y mayor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E74255B0-3474-4801-AB9C-C09915463394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C289CE-C55D-4A8F-B012-841DCCD536E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="0" windowWidth="11580" windowHeight="12630" xr2:uid="{D24B5BCB-F610-4915-91F4-7523C7A237DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D24B5BCB-F610-4915-91F4-7523C7A237DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1568,11 +1568,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1938,11 +1940,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72B3F32-B73E-42AB-9E54-5FCABB9E968F}">
   <dimension ref="A1:H575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1983,7 +1987,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2009,7 +2013,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -2035,7 +2039,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>101</v>
       </c>
       <c r="B8" t="s">
@@ -2061,7 +2065,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>10101</v>
       </c>
       <c r="B9" t="s">
@@ -2087,7 +2091,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>1010101</v>
       </c>
       <c r="B10" t="s">
@@ -2113,7 +2117,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>101010101</v>
       </c>
       <c r="B11" t="s">
@@ -2139,7 +2143,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>101010101001</v>
       </c>
       <c r="B12" t="s">
@@ -2165,7 +2169,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>101010101002</v>
       </c>
       <c r="B13" t="s">
@@ -2191,7 +2195,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>101010101004</v>
       </c>
       <c r="B14" t="s">
@@ -2217,7 +2221,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>101010101006</v>
       </c>
       <c r="B15" t="s">
@@ -2243,7 +2247,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>101010102</v>
       </c>
       <c r="B16" t="s">
@@ -2269,7 +2273,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>101010102001</v>
       </c>
       <c r="B17" t="s">
@@ -2295,7 +2299,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>1010102</v>
       </c>
       <c r="B18" t="s">
@@ -2321,7 +2325,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>101010201</v>
       </c>
       <c r="B19" t="s">
@@ -2347,7 +2351,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>101010201001</v>
       </c>
       <c r="B20" t="s">
@@ -2373,7 +2377,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>101010201002</v>
       </c>
       <c r="B21" t="s">
@@ -2399,7 +2403,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>101010201004</v>
       </c>
       <c r="B22" t="s">
@@ -2425,7 +2429,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>101010201005</v>
       </c>
       <c r="B23" t="s">
@@ -2451,7 +2455,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>101010201006</v>
       </c>
       <c r="B24" t="s">
@@ -2477,7 +2481,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>101010202</v>
       </c>
       <c r="B25" t="s">
@@ -2503,7 +2507,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>101010202001</v>
       </c>
       <c r="B26" t="s">
@@ -2529,7 +2533,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="4">
         <v>10102</v>
       </c>
       <c r="B27" t="s">
@@ -2555,7 +2559,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>1010203</v>
       </c>
       <c r="B28" t="s">
@@ -2581,7 +2585,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>101020301003</v>
       </c>
       <c r="B29" t="s">
@@ -2607,7 +2611,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>1010205</v>
       </c>
       <c r="B30" t="s">
@@ -2633,7 +2637,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>101020502</v>
       </c>
       <c r="B31" t="s">
@@ -2659,7 +2663,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>101020502001</v>
       </c>
       <c r="B32" t="s">
@@ -2685,7 +2689,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="4">
         <v>101020502002</v>
       </c>
       <c r="B33" t="s">
@@ -2711,7 +2715,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>101020503</v>
       </c>
       <c r="B34" t="s">
@@ -2737,7 +2741,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>101020503001</v>
       </c>
       <c r="B35" t="s">
@@ -2763,7 +2767,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>1010207</v>
       </c>
       <c r="B36" t="s">
@@ -2789,7 +2793,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>101020703</v>
       </c>
       <c r="B37" t="s">
@@ -2815,7 +2819,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>101020703001</v>
       </c>
       <c r="B38" t="s">
@@ -2841,7 +2845,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>101020704</v>
       </c>
       <c r="B39" t="s">
@@ -2867,7 +2871,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>101020704001</v>
       </c>
       <c r="B40" t="s">
@@ -2893,7 +2897,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>101020704002</v>
       </c>
       <c r="B41" t="s">
@@ -2919,7 +2923,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>101020704003</v>
       </c>
       <c r="B42" t="s">
@@ -2945,7 +2949,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>101020704004</v>
       </c>
       <c r="B43" t="s">
@@ -2971,7 +2975,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>101020704005</v>
       </c>
       <c r="B44" t="s">
@@ -2997,7 +3001,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>101020704006</v>
       </c>
       <c r="B45" t="s">
@@ -3023,7 +3027,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>101020704007</v>
       </c>
       <c r="B46" t="s">
@@ -3049,7 +3053,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>1010208</v>
       </c>
       <c r="B47" t="s">
@@ -3075,7 +3079,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>101020801</v>
       </c>
       <c r="B48" t="s">
@@ -3101,7 +3105,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="4">
         <v>101020801002</v>
       </c>
       <c r="B49" t="s">
@@ -3127,7 +3131,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>101020801003</v>
       </c>
       <c r="B50" t="s">
@@ -3153,7 +3157,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>101020803</v>
       </c>
       <c r="B51" t="s">
@@ -3179,7 +3183,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>101020803001</v>
       </c>
       <c r="B52" t="s">
@@ -3205,7 +3209,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="4">
         <v>101020803004</v>
       </c>
       <c r="B53" t="s">
@@ -3231,7 +3235,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>101020803005</v>
       </c>
       <c r="B54" t="s">
@@ -3257,7 +3261,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>101020803007</v>
       </c>
       <c r="B55" t="s">
@@ -3283,7 +3287,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>101020803009</v>
       </c>
       <c r="B56" t="s">
@@ -3309,7 +3313,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>101020803010</v>
       </c>
       <c r="B57" t="s">
@@ -3335,7 +3339,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>1010209</v>
       </c>
       <c r="B58" t="s">
@@ -3361,7 +3365,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="4">
         <v>101020901</v>
       </c>
       <c r="B59" t="s">
@@ -3387,7 +3391,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>101020901001</v>
       </c>
       <c r="B60" t="s">
@@ -3413,7 +3417,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="4">
         <v>10103</v>
       </c>
       <c r="B61" t="s">
@@ -3439,7 +3443,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="4">
         <v>1010301</v>
       </c>
       <c r="B62" t="s">
@@ -3465,7 +3469,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="4">
         <v>101030101</v>
       </c>
       <c r="B63" t="s">
@@ -3491,7 +3495,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="4">
         <v>101030101001</v>
       </c>
       <c r="B64" t="s">
@@ -3517,7 +3521,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="4">
         <v>101030102</v>
       </c>
       <c r="B65" t="s">
@@ -3543,7 +3547,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="4">
         <v>101030102001</v>
       </c>
       <c r="B66" t="s">
@@ -3569,7 +3573,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="4">
         <v>1010302</v>
       </c>
       <c r="B67" t="s">
@@ -3595,7 +3599,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="4">
         <v>101030201</v>
       </c>
       <c r="B68" t="s">
@@ -3621,7 +3625,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="4">
         <v>101030201001</v>
       </c>
       <c r="B69" t="s">
@@ -3647,7 +3651,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="4">
         <v>1010303</v>
       </c>
       <c r="B70" t="s">
@@ -3673,7 +3677,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="4">
         <v>101030301</v>
       </c>
       <c r="B71" t="s">
@@ -3699,7 +3703,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="4">
         <v>101030301001</v>
       </c>
       <c r="B72" t="s">
@@ -3725,7 +3729,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="4">
         <v>101030301003</v>
       </c>
       <c r="B73" t="s">
@@ -3751,7 +3755,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="4">
         <v>1010304</v>
       </c>
       <c r="B74" t="s">
@@ -3777,7 +3781,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="4">
         <v>101030401</v>
       </c>
       <c r="B75" t="s">
@@ -3803,7 +3807,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="4">
         <v>101030401001</v>
       </c>
       <c r="B76" t="s">
@@ -3829,7 +3833,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="4">
         <v>1010305</v>
       </c>
       <c r="B77" t="s">
@@ -3855,7 +3859,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>101030501</v>
       </c>
       <c r="B78" t="s">
@@ -3881,7 +3885,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="4">
         <v>101030501001</v>
       </c>
       <c r="B79" t="s">
@@ -3907,7 +3911,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>1010306</v>
       </c>
       <c r="B80" t="s">
@@ -3933,7 +3937,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="4">
         <v>101030601</v>
       </c>
       <c r="B81" t="s">
@@ -3959,7 +3963,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="4">
         <v>101030601001</v>
       </c>
       <c r="B82" t="s">
@@ -3985,7 +3989,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="4">
         <v>1010307</v>
       </c>
       <c r="B83" t="s">
@@ -4011,7 +4015,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="4">
         <v>101030701</v>
       </c>
       <c r="B84" t="s">
@@ -4037,7 +4041,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="4">
         <v>101030701001</v>
       </c>
       <c r="B85" t="s">
@@ -4063,7 +4067,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="4">
         <v>1010308</v>
       </c>
       <c r="B86" t="s">
@@ -4089,7 +4093,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="4">
         <v>101030801</v>
       </c>
       <c r="B87" t="s">
@@ -4115,7 +4119,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="4">
         <v>101030801001</v>
       </c>
       <c r="B88" t="s">
@@ -4141,7 +4145,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="4">
         <v>10104</v>
       </c>
       <c r="B89" t="s">
@@ -4167,7 +4171,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="4">
         <v>1010401</v>
       </c>
       <c r="B90" t="s">
@@ -4193,7 +4197,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="4">
         <v>101040101</v>
       </c>
       <c r="B91" t="s">
@@ -4219,7 +4223,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="4">
         <v>101040101001</v>
       </c>
       <c r="B92" t="s">
@@ -4245,7 +4249,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="4">
         <v>101040101002</v>
       </c>
       <c r="B93" t="s">
@@ -4271,7 +4275,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="4">
         <v>10105</v>
       </c>
       <c r="B94" t="s">
@@ -4297,7 +4301,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="4">
         <v>1010501</v>
       </c>
       <c r="B95" t="s">
@@ -4323,7 +4327,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="4">
         <v>101050101</v>
       </c>
       <c r="B96" t="s">
@@ -4349,7 +4353,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="4">
         <v>101050101001</v>
       </c>
       <c r="B97" t="s">
@@ -4375,7 +4379,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="4">
         <v>101050102</v>
       </c>
       <c r="B98" t="s">
@@ -4401,7 +4405,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="4">
         <v>101050102001</v>
       </c>
       <c r="B99" t="s">
@@ -4427,7 +4431,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="4">
         <v>101050102003</v>
       </c>
       <c r="B100" t="s">
@@ -4453,7 +4457,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="4">
         <v>101050102004</v>
       </c>
       <c r="B101" t="s">
@@ -4479,7 +4483,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="4">
         <v>101050102005</v>
       </c>
       <c r="B102" t="s">
@@ -4505,7 +4509,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="4">
         <v>1010502</v>
       </c>
       <c r="B103" t="s">
@@ -4531,7 +4535,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="4">
         <v>101050201</v>
       </c>
       <c r="B104" t="s">
@@ -4557,7 +4561,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="4">
         <v>101050201001</v>
       </c>
       <c r="B105" t="s">
@@ -4583,7 +4587,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="4">
         <v>101050201002</v>
       </c>
       <c r="B106" t="s">
@@ -4609,7 +4613,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="4">
         <v>101050201003</v>
       </c>
       <c r="B107" t="s">
@@ -4635,7 +4639,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="4">
         <v>101050201004</v>
       </c>
       <c r="B108" t="s">
@@ -4661,7 +4665,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="4">
         <v>101050201005</v>
       </c>
       <c r="B109" t="s">
@@ -4687,7 +4691,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="4">
         <v>101050201006</v>
       </c>
       <c r="B110" t="s">
@@ -4713,7 +4717,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="4">
         <v>1010503</v>
       </c>
       <c r="B111" t="s">
@@ -4739,7 +4743,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="4">
         <v>101050301</v>
       </c>
       <c r="B112" t="s">
@@ -4765,7 +4769,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="4">
         <v>101050301001</v>
       </c>
       <c r="B113" t="s">
@@ -4791,7 +4795,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="4">
         <v>101050301002</v>
       </c>
       <c r="B114" t="s">
@@ -4817,7 +4821,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="4">
         <v>101050301003</v>
       </c>
       <c r="B115" t="s">
@@ -4843,7 +4847,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="4">
         <v>10106</v>
       </c>
       <c r="B116" t="s">
@@ -4869,7 +4873,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="4">
         <v>1010601</v>
       </c>
       <c r="B117" t="s">
@@ -4895,7 +4899,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="4">
         <v>101060101003</v>
       </c>
       <c r="B118" t="s">
@@ -4921,7 +4925,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="4">
         <v>102</v>
       </c>
       <c r="B119" t="s">
@@ -4947,7 +4951,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="4">
         <v>10201</v>
       </c>
       <c r="B120" t="s">
@@ -4973,7 +4977,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="4">
         <v>1020101</v>
       </c>
       <c r="B121" t="s">
@@ -4999,7 +5003,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="4">
         <v>102010101</v>
       </c>
       <c r="B122" t="s">
@@ -5025,7 +5029,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="4">
         <v>102010101001</v>
       </c>
       <c r="B123" t="s">
@@ -5051,7 +5055,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="4">
         <v>102010101002</v>
       </c>
       <c r="B124" t="s">
@@ -5077,7 +5081,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="4">
         <v>1020102</v>
       </c>
       <c r="B125" t="s">
@@ -5103,7 +5107,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="4">
         <v>102010201</v>
       </c>
       <c r="B126" t="s">
@@ -5129,7 +5133,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="4">
         <v>102010201001</v>
       </c>
       <c r="B127" t="s">
@@ -5155,7 +5159,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="4">
         <v>102010201004</v>
       </c>
       <c r="B128" t="s">
@@ -5181,7 +5185,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="4">
         <v>102010201005</v>
       </c>
       <c r="B129" t="s">
@@ -5207,7 +5211,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="4">
         <v>102010201006</v>
       </c>
       <c r="B130" t="s">
@@ -5233,7 +5237,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="4">
         <v>102010201007</v>
       </c>
       <c r="B131" t="s">
@@ -5259,7 +5263,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="4">
         <v>102010201009</v>
       </c>
       <c r="B132" t="s">
@@ -5285,7 +5289,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="4">
         <v>1020103</v>
       </c>
       <c r="B133" t="s">
@@ -5311,7 +5315,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="4">
         <v>102010301</v>
       </c>
       <c r="B134" t="s">
@@ -5337,7 +5341,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="4">
         <v>102010301001</v>
       </c>
       <c r="B135" t="s">
@@ -5363,7 +5367,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="4">
         <v>102010301004</v>
       </c>
       <c r="B136" t="s">
@@ -5389,7 +5393,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="4">
         <v>102010301005</v>
       </c>
       <c r="B137" t="s">
@@ -5415,7 +5419,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="4">
         <v>102010301006</v>
       </c>
       <c r="B138" t="s">
@@ -5441,7 +5445,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="4">
         <v>102010301007</v>
       </c>
       <c r="B139" t="s">
@@ -5467,7 +5471,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="4">
         <v>102010301009</v>
       </c>
       <c r="B140" t="s">
@@ -5493,7 +5497,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="4">
         <v>1020104</v>
       </c>
       <c r="B141" t="s">
@@ -5519,7 +5523,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="4">
         <v>102010401</v>
       </c>
       <c r="B142" t="s">
@@ -5545,7 +5549,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="4">
         <v>102010401006</v>
       </c>
       <c r="B143" t="s">
@@ -5571,7 +5575,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="4">
         <v>1020105</v>
       </c>
       <c r="B144" t="s">
@@ -5597,7 +5601,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="4">
         <v>102010501</v>
       </c>
       <c r="B145" t="s">
@@ -5623,7 +5627,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="4">
         <v>102010501001</v>
       </c>
       <c r="B146" t="s">
@@ -5649,7 +5653,7 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="4">
         <v>10202</v>
       </c>
       <c r="B147" t="s">
@@ -5675,7 +5679,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="4">
         <v>1020201</v>
       </c>
       <c r="B148" t="s">
@@ -5701,7 +5705,7 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="4">
         <v>102020101</v>
       </c>
       <c r="B149" t="s">
@@ -5727,7 +5731,7 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="4">
         <v>102020101004</v>
       </c>
       <c r="B150" t="s">
@@ -5753,7 +5757,7 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="4">
         <v>1020202</v>
       </c>
       <c r="B151" t="s">
@@ -5779,7 +5783,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="4">
         <v>102020201</v>
       </c>
       <c r="B152" t="s">
@@ -5805,7 +5809,7 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="4">
         <v>102020201001</v>
       </c>
       <c r="B153" t="s">
@@ -5831,7 +5835,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="4">
         <v>104</v>
       </c>
       <c r="B154" t="s">
@@ -5857,7 +5861,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="4">
         <v>10401</v>
       </c>
       <c r="B155" t="s">
@@ -5883,7 +5887,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="4">
         <v>1040101</v>
       </c>
       <c r="B156" t="s">
@@ -5909,7 +5913,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="4">
         <v>104010101</v>
       </c>
       <c r="B157" t="s">
@@ -5935,7 +5939,7 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="4">
         <v>104010101001</v>
       </c>
       <c r="B158" t="s">
@@ -5961,7 +5965,7 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="4">
         <v>2</v>
       </c>
       <c r="B159" t="s">
@@ -5987,7 +5991,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="4">
         <v>201</v>
       </c>
       <c r="B160" t="s">
@@ -6013,7 +6017,7 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="4">
         <v>20103</v>
       </c>
       <c r="B161" t="s">
@@ -6039,7 +6043,7 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="4">
         <v>2010301</v>
       </c>
       <c r="B162" t="s">
@@ -6065,7 +6069,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="4">
         <v>201030101</v>
       </c>
       <c r="B163" t="s">
@@ -6091,7 +6095,7 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="4">
         <v>201030101001</v>
       </c>
       <c r="B164" t="s">
@@ -6117,7 +6121,7 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="4">
         <v>201030101002</v>
       </c>
       <c r="B165" t="s">
@@ -6143,7 +6147,7 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="4">
         <v>2010302</v>
       </c>
       <c r="B166" t="s">
@@ -6169,7 +6173,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="4">
         <v>201030201</v>
       </c>
       <c r="B167" t="s">
@@ -6195,7 +6199,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="4">
         <v>201030201001</v>
       </c>
       <c r="B168" t="s">
@@ -6221,7 +6225,7 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="4">
         <v>201030201002</v>
       </c>
       <c r="B169" t="s">
@@ -6247,7 +6251,7 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="4">
         <v>2010304</v>
       </c>
       <c r="B170" t="s">
@@ -6273,7 +6277,7 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="4">
         <v>201030401</v>
       </c>
       <c r="B171" t="s">
@@ -6299,7 +6303,7 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="4">
         <v>201030401001</v>
       </c>
       <c r="B172" t="s">
@@ -6325,7 +6329,7 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="4">
         <v>201030401002</v>
       </c>
       <c r="B173" t="s">
@@ -6351,7 +6355,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="4">
         <v>201030401003</v>
       </c>
       <c r="B174" t="s">
@@ -6377,7 +6381,7 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="4">
         <v>201030401005</v>
       </c>
       <c r="B175" t="s">
@@ -6403,7 +6407,7 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="4">
         <v>20105</v>
       </c>
       <c r="B176" t="s">
@@ -6429,7 +6433,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="4">
         <v>2010501</v>
       </c>
       <c r="B177" t="s">
@@ -6455,7 +6459,7 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="4">
         <v>201050101</v>
       </c>
       <c r="B178" t="s">
@@ -6481,7 +6485,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="4">
         <v>201050101001</v>
       </c>
       <c r="B179" t="s">
@@ -6507,7 +6511,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="4">
         <v>201050101002</v>
       </c>
       <c r="B180" t="s">
@@ -6533,7 +6537,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="4">
         <v>201050101003</v>
       </c>
       <c r="B181" t="s">
@@ -6559,7 +6563,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="4">
         <v>201050101004</v>
       </c>
       <c r="B182" t="s">
@@ -6585,7 +6589,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="4">
         <v>201050101005</v>
       </c>
       <c r="B183" t="s">
@@ -6611,7 +6615,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="4">
         <v>201050101007</v>
       </c>
       <c r="B184" t="s">
@@ -6637,7 +6641,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="4">
         <v>201050101008</v>
       </c>
       <c r="B185" t="s">
@@ -6663,7 +6667,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="4">
         <v>201050101009</v>
       </c>
       <c r="B186" t="s">
@@ -6689,7 +6693,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="4">
         <v>201050101012</v>
       </c>
       <c r="B187" t="s">
@@ -6715,7 +6719,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="4">
         <v>201050101013</v>
       </c>
       <c r="B188" t="s">
@@ -6741,7 +6745,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="4">
         <v>201050101015</v>
       </c>
       <c r="B189" t="s">
@@ -6767,7 +6771,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="4">
         <v>201050101017</v>
       </c>
       <c r="B190" t="s">
@@ -6793,7 +6797,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="4">
         <v>201050101019</v>
       </c>
       <c r="B191" t="s">
@@ -6819,7 +6823,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="4">
         <v>201050102</v>
       </c>
       <c r="B192" t="s">
@@ -6845,7 +6849,7 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="4">
         <v>201050102001</v>
       </c>
       <c r="B193" t="s">
@@ -6871,7 +6875,7 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="4">
         <v>201050102002</v>
       </c>
       <c r="B194" t="s">
@@ -6897,7 +6901,7 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="4">
         <v>201050102003</v>
       </c>
       <c r="B195" t="s">
@@ -6923,7 +6927,7 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="4">
         <v>201050102005</v>
       </c>
       <c r="B196" t="s">
@@ -6949,7 +6953,7 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="4">
         <v>201050102006</v>
       </c>
       <c r="B197" t="s">
@@ -6975,7 +6979,7 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="4">
         <v>201050102007</v>
       </c>
       <c r="B198" t="s">
@@ -7001,7 +7005,7 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="4">
         <v>201050102008</v>
       </c>
       <c r="B199" t="s">
@@ -7027,7 +7031,7 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="4">
         <v>2010503</v>
       </c>
       <c r="B200" t="s">
@@ -7053,7 +7057,7 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="4">
         <v>201050301</v>
       </c>
       <c r="B201" t="s">
@@ -7079,7 +7083,7 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="4">
         <v>201050301001</v>
       </c>
       <c r="B202" t="s">
@@ -7105,7 +7109,7 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="4">
         <v>201050301002</v>
       </c>
       <c r="B203" t="s">
@@ -7131,7 +7135,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="4">
         <v>201050301003</v>
       </c>
       <c r="B204" t="s">
@@ -7157,7 +7161,7 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="4">
         <v>201050301004</v>
       </c>
       <c r="B205" t="s">
@@ -7183,7 +7187,7 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="4">
         <v>201050301005</v>
       </c>
       <c r="B206" t="s">
@@ -7209,7 +7213,7 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="4">
         <v>201050301009</v>
       </c>
       <c r="B207" t="s">
@@ -7235,7 +7239,7 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="4">
         <v>201050301010</v>
       </c>
       <c r="B208" t="s">
@@ -7261,7 +7265,7 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="4">
         <v>2010504</v>
       </c>
       <c r="B209" t="s">
@@ -7287,7 +7291,7 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="4">
         <v>201050401</v>
       </c>
       <c r="B210" t="s">
@@ -7313,7 +7317,7 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="4">
         <v>201050401001</v>
       </c>
       <c r="B211" t="s">
@@ -7339,7 +7343,7 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="4">
         <v>201050401002</v>
       </c>
       <c r="B212" t="s">
@@ -7365,7 +7369,7 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="4">
         <v>201050401003</v>
       </c>
       <c r="B213" t="s">
@@ -7391,7 +7395,7 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="4">
         <v>201050401004</v>
       </c>
       <c r="B214" t="s">
@@ -7417,7 +7421,7 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="4">
         <v>201050401006</v>
       </c>
       <c r="B215" t="s">
@@ -7443,7 +7447,7 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="4">
         <v>201050401007</v>
       </c>
       <c r="B216" t="s">
@@ -7469,7 +7473,7 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="4">
         <v>2010505</v>
       </c>
       <c r="B217" t="s">
@@ -7495,7 +7499,7 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="4">
         <v>201050501</v>
       </c>
       <c r="B218" t="s">
@@ -7521,7 +7525,7 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="4">
         <v>201050501001</v>
       </c>
       <c r="B219" t="s">
@@ -7547,7 +7551,7 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="4">
         <v>20107</v>
       </c>
       <c r="B220" t="s">
@@ -7573,7 +7577,7 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="4">
         <v>2010701</v>
       </c>
       <c r="B221" t="s">
@@ -7599,7 +7603,7 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="4">
         <v>201070101</v>
       </c>
       <c r="B222" t="s">
@@ -7625,7 +7629,7 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="4">
         <v>201070101001</v>
       </c>
       <c r="B223" t="s">
@@ -7651,7 +7655,7 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="4">
         <v>201070101003</v>
       </c>
       <c r="B224" t="s">
@@ -7677,7 +7681,7 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="4">
         <v>202</v>
       </c>
       <c r="B225" t="s">
@@ -7703,7 +7707,7 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="4">
         <v>20204</v>
       </c>
       <c r="B226" t="s">
@@ -7729,7 +7733,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="4">
         <v>2020401</v>
       </c>
       <c r="B227" t="s">
@@ -7755,7 +7759,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="4">
         <v>202040101</v>
       </c>
       <c r="B228" t="s">
@@ -7781,7 +7785,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="4">
         <v>202040101001</v>
       </c>
       <c r="B229" t="s">
@@ -7807,7 +7811,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="4">
         <v>20205</v>
       </c>
       <c r="B230" t="s">
@@ -7833,7 +7837,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="4">
         <v>2020501</v>
       </c>
       <c r="B231" t="s">
@@ -7859,7 +7863,7 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="4">
         <v>202050101</v>
       </c>
       <c r="B232" t="s">
@@ -7885,7 +7889,7 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="4">
         <v>202050101001</v>
       </c>
       <c r="B233" t="s">
@@ -7911,7 +7915,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="4">
         <v>202050101002</v>
       </c>
       <c r="B234" t="s">
@@ -7937,7 +7941,7 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="4">
         <v>3</v>
       </c>
       <c r="B235" t="s">
@@ -7963,7 +7967,7 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="4">
         <v>301</v>
       </c>
       <c r="B236" t="s">
@@ -7989,7 +7993,7 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="4">
         <v>30101</v>
       </c>
       <c r="B237" t="s">
@@ -8015,7 +8019,7 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="4">
         <v>3010101</v>
       </c>
       <c r="B238" t="s">
@@ -8041,7 +8045,7 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="4">
         <v>301010101</v>
       </c>
       <c r="B239" t="s">
@@ -8067,7 +8071,7 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="4">
         <v>301010101001</v>
       </c>
       <c r="B240" t="s">
@@ -8093,7 +8097,7 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="4">
         <v>304</v>
       </c>
       <c r="B241" t="s">
@@ -8119,7 +8123,7 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="4">
         <v>30401</v>
       </c>
       <c r="B242" t="s">
@@ -8145,7 +8149,7 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="4">
         <v>3040101</v>
       </c>
       <c r="B243" t="s">
@@ -8171,7 +8175,7 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="4">
         <v>304010101</v>
       </c>
       <c r="B244" t="s">
@@ -8197,7 +8201,7 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="4">
         <v>304010101001</v>
       </c>
       <c r="B245" t="s">
@@ -8223,7 +8227,7 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="4">
         <v>30402</v>
       </c>
       <c r="B246" t="s">
@@ -8249,7 +8253,7 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="4">
         <v>3040201</v>
       </c>
       <c r="B247" t="s">
@@ -8275,7 +8279,7 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="4">
         <v>304020101</v>
       </c>
       <c r="B248" t="s">
@@ -8301,7 +8305,7 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="4">
         <v>304020101001</v>
       </c>
       <c r="B249" t="s">
@@ -8327,7 +8331,7 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="4">
         <v>305</v>
       </c>
       <c r="B250" t="s">
@@ -8353,7 +8357,7 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="4">
         <v>30502</v>
       </c>
       <c r="B251" t="s">
@@ -8379,7 +8383,7 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="4">
         <v>3050201</v>
       </c>
       <c r="B252" t="s">
@@ -8405,7 +8409,7 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="4">
         <v>305020101</v>
       </c>
       <c r="B253" t="s">
@@ -8431,7 +8435,7 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="4">
         <v>305020101001</v>
       </c>
       <c r="B254" t="s">
@@ -8457,7 +8461,7 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="4">
         <v>30504</v>
       </c>
       <c r="B255" t="s">
@@ -8483,7 +8487,7 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="4">
         <v>3050401</v>
       </c>
       <c r="B256" t="s">
@@ -8509,7 +8513,7 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="4">
         <v>305040101</v>
       </c>
       <c r="B257" t="s">
@@ -8535,7 +8539,7 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="4">
         <v>305040101001</v>
       </c>
       <c r="B258" t="s">
@@ -8561,7 +8565,7 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="4">
         <v>305040101002</v>
       </c>
       <c r="B259" t="s">
@@ -8587,7 +8591,7 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="4">
         <v>306</v>
       </c>
       <c r="B260" t="s">
@@ -8613,7 +8617,7 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="4">
         <v>30601</v>
       </c>
       <c r="B261" t="s">
@@ -8639,7 +8643,7 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="4">
         <v>3060101</v>
       </c>
       <c r="B262" t="s">
@@ -8665,7 +8669,7 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="4">
         <v>306010101</v>
       </c>
       <c r="B263" t="s">
@@ -8691,7 +8695,7 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="4">
         <v>306010101001</v>
       </c>
       <c r="B264" t="s">
@@ -8717,7 +8721,7 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="4">
         <v>306010101003</v>
       </c>
       <c r="B265" t="s">
@@ -8743,7 +8747,7 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="4">
         <v>30602</v>
       </c>
       <c r="B266" t="s">
@@ -8769,7 +8773,7 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="4">
         <v>3060201</v>
       </c>
       <c r="B267" t="s">
@@ -8795,7 +8799,7 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="4">
         <v>306020101</v>
       </c>
       <c r="B268" t="s">
@@ -8821,7 +8825,7 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="4">
         <v>306020101001</v>
       </c>
       <c r="B269" t="s">
@@ -8847,7 +8851,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="4">
         <v>307</v>
       </c>
       <c r="B270" t="s">
@@ -8873,7 +8877,7 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="4">
         <v>30701</v>
       </c>
       <c r="B271" t="s">
@@ -8899,7 +8903,7 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="4">
         <v>3070101</v>
       </c>
       <c r="B272" t="s">
@@ -8925,7 +8929,7 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="4">
         <v>307010101</v>
       </c>
       <c r="B273" t="s">
@@ -8951,7 +8955,7 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="4">
         <v>307010101001</v>
       </c>
       <c r="B274" t="s">
@@ -8977,7 +8981,7 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="4">
         <v>4</v>
       </c>
       <c r="B275" t="s">
@@ -9003,7 +9007,7 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="4">
         <v>41</v>
       </c>
       <c r="B276" t="s">
@@ -9029,7 +9033,7 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="4">
         <v>4101</v>
       </c>
       <c r="B277" t="s">
@@ -9055,7 +9059,7 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="4">
         <v>410101</v>
       </c>
       <c r="B278" t="s">
@@ -9081,7 +9085,7 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="4">
         <v>41010101</v>
       </c>
       <c r="B279" t="s">
@@ -9107,7 +9111,7 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="4">
         <v>410101010001</v>
       </c>
       <c r="B280" t="s">
@@ -9133,7 +9137,7 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="4">
         <v>410101010002</v>
       </c>
       <c r="B281" t="s">
@@ -9159,7 +9163,7 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="4">
         <v>410101010003</v>
       </c>
       <c r="B282" t="s">
@@ -9185,7 +9189,7 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="4">
         <v>410101010004</v>
       </c>
       <c r="B283" t="s">
@@ -9211,7 +9215,7 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="4">
         <v>410101010005</v>
       </c>
       <c r="B284" t="s">
@@ -9237,7 +9241,7 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="4">
         <v>410101010008</v>
       </c>
       <c r="B285" t="s">
@@ -9263,7 +9267,7 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="4">
         <v>410101010009</v>
       </c>
       <c r="B286" t="s">
@@ -9289,7 +9293,7 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="4">
         <v>410101010012</v>
       </c>
       <c r="B287" t="s">
@@ -9315,7 +9319,7 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="4">
         <v>410101010013</v>
       </c>
       <c r="B288" t="s">
@@ -9341,7 +9345,7 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="4">
         <v>410101010014</v>
       </c>
       <c r="B289" t="s">
@@ -9367,7 +9371,7 @@
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="4">
         <v>410101010031</v>
       </c>
       <c r="B290" t="s">
@@ -9393,7 +9397,7 @@
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="4">
         <v>410101010032</v>
       </c>
       <c r="B291" t="s">
@@ -9419,7 +9423,7 @@
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="4">
         <v>41010103</v>
       </c>
       <c r="B292" t="s">
@@ -9445,7 +9449,7 @@
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="4">
         <v>410101030010</v>
       </c>
       <c r="B293" t="s">
@@ -9471,7 +9475,7 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="4">
         <v>410101030031</v>
       </c>
       <c r="B294" t="s">
@@ -9497,7 +9501,7 @@
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="4">
         <v>410101030032</v>
       </c>
       <c r="B295" t="s">
@@ -9523,7 +9527,7 @@
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="4">
         <v>410101030033</v>
       </c>
       <c r="B296" t="s">
@@ -9549,7 +9553,7 @@
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="4">
         <v>41010105</v>
       </c>
       <c r="B297" t="s">
@@ -9575,7 +9579,7 @@
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="4">
         <v>410101050001</v>
       </c>
       <c r="B298" t="s">
@@ -9601,7 +9605,7 @@
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="4">
         <v>410102</v>
       </c>
       <c r="B299" t="s">
@@ -9627,7 +9631,7 @@
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="A300" s="4">
         <v>41010201</v>
       </c>
       <c r="B300" t="s">
@@ -9653,7 +9657,7 @@
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="A301" s="4">
         <v>410102010003</v>
       </c>
       <c r="B301" t="s">
@@ -9679,7 +9683,7 @@
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="A302" s="4">
         <v>42</v>
       </c>
       <c r="B302" t="s">
@@ -9705,7 +9709,7 @@
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="A303" s="4">
         <v>4201</v>
       </c>
       <c r="B303" t="s">
@@ -9731,7 +9735,7 @@
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="A304" s="4">
         <v>420101</v>
       </c>
       <c r="B304" t="s">
@@ -9757,7 +9761,7 @@
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="A305" s="4">
         <v>42010101</v>
       </c>
       <c r="B305" t="s">
@@ -9783,7 +9787,7 @@
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="4">
         <v>420101010001</v>
       </c>
       <c r="B306" t="s">
@@ -9809,7 +9813,7 @@
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="A307" s="4">
         <v>5</v>
       </c>
       <c r="B307" t="s">
@@ -9835,7 +9839,7 @@
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="A308" s="4">
         <v>51</v>
       </c>
       <c r="B308" t="s">
@@ -9861,7 +9865,7 @@
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="A309" s="4">
         <v>5101</v>
       </c>
       <c r="B309" t="s">
@@ -9887,7 +9891,7 @@
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="4">
         <v>510101</v>
       </c>
       <c r="B310" t="s">
@@ -9913,7 +9917,7 @@
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="A311" s="4">
         <v>51010101</v>
       </c>
       <c r="B311" t="s">
@@ -9939,7 +9943,7 @@
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="4">
         <v>510101010001</v>
       </c>
       <c r="B312" t="s">
@@ -9965,7 +9969,7 @@
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="A313" s="4">
         <v>510101010002</v>
       </c>
       <c r="B313" t="s">
@@ -9991,7 +9995,7 @@
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="A314" s="4">
         <v>510101010003</v>
       </c>
       <c r="B314" t="s">
@@ -10017,7 +10021,7 @@
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="4">
         <v>510101010004</v>
       </c>
       <c r="B315" t="s">
@@ -10043,7 +10047,7 @@
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="4">
         <v>510101010005</v>
       </c>
       <c r="B316" t="s">
@@ -10069,7 +10073,7 @@
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="A317" s="4">
         <v>510101010008</v>
       </c>
       <c r="B317" t="s">
@@ -10095,7 +10099,7 @@
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="4">
         <v>510101010009</v>
       </c>
       <c r="B318" t="s">
@@ -10121,7 +10125,7 @@
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="4">
         <v>510101010010</v>
       </c>
       <c r="B319" t="s">
@@ -10147,7 +10151,7 @@
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="A320" s="4">
         <v>510101010012</v>
       </c>
       <c r="B320" t="s">
@@ -10173,7 +10177,7 @@
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="A321" s="4">
         <v>510101010013</v>
       </c>
       <c r="B321" t="s">
@@ -10199,7 +10203,7 @@
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="A322" s="4">
         <v>510101010030</v>
       </c>
       <c r="B322" t="s">
@@ -10225,7 +10229,7 @@
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="A323" s="4">
         <v>510101010031</v>
       </c>
       <c r="B323" t="s">
@@ -10251,7 +10255,7 @@
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="A324" s="4">
         <v>510101010032</v>
       </c>
       <c r="B324" t="s">
@@ -10277,7 +10281,7 @@
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="A325" s="4">
         <v>510101010033</v>
       </c>
       <c r="B325" t="s">
@@ -10303,7 +10307,7 @@
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="A326" s="4">
         <v>510101010034</v>
       </c>
       <c r="B326" t="s">
@@ -10329,7 +10333,7 @@
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="A327" s="4">
         <v>5102</v>
       </c>
       <c r="B327" t="s">
@@ -10355,7 +10359,7 @@
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="A328" s="4">
         <v>510201</v>
       </c>
       <c r="B328" t="s">
@@ -10381,7 +10385,7 @@
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="A329" s="4">
         <v>51020101</v>
       </c>
       <c r="B329" t="s">
@@ -10407,7 +10411,7 @@
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="A330" s="4">
         <v>510201010001</v>
       </c>
       <c r="B330" t="s">
@@ -10433,7 +10437,7 @@
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A331">
+      <c r="A331" s="4">
         <v>510201010002</v>
       </c>
       <c r="B331" t="s">
@@ -10459,7 +10463,7 @@
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="A332" s="4">
         <v>510201010003</v>
       </c>
       <c r="B332" t="s">
@@ -10485,7 +10489,7 @@
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="A333" s="4">
         <v>510201010005</v>
       </c>
       <c r="B333" t="s">
@@ -10511,7 +10515,7 @@
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334">
+      <c r="A334" s="4">
         <v>510201010006</v>
       </c>
       <c r="B334" t="s">
@@ -10537,7 +10541,7 @@
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335">
+      <c r="A335" s="4">
         <v>510201010007</v>
       </c>
       <c r="B335" t="s">
@@ -10563,7 +10567,7 @@
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336">
+      <c r="A336" s="4">
         <v>510201010008</v>
       </c>
       <c r="B336" t="s">
@@ -10589,7 +10593,7 @@
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A337">
+      <c r="A337" s="4">
         <v>510201010009</v>
       </c>
       <c r="B337" t="s">
@@ -10615,7 +10619,7 @@
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="A338" s="4">
         <v>510201010010</v>
       </c>
       <c r="B338" t="s">
@@ -10641,7 +10645,7 @@
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="A339" s="4">
         <v>510201010011</v>
       </c>
       <c r="B339" t="s">
@@ -10667,7 +10671,7 @@
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340">
+      <c r="A340" s="4">
         <v>51020103</v>
       </c>
       <c r="B340" t="s">
@@ -10693,7 +10697,7 @@
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A341">
+      <c r="A341" s="4">
         <v>510201030001</v>
       </c>
       <c r="B341" t="s">
@@ -10719,7 +10723,7 @@
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A342">
+      <c r="A342" s="4">
         <v>510201030002</v>
       </c>
       <c r="B342" t="s">
@@ -10745,7 +10749,7 @@
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343">
+      <c r="A343" s="4">
         <v>51020105</v>
       </c>
       <c r="B343" t="s">
@@ -10771,7 +10775,7 @@
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A344">
+      <c r="A344" s="4">
         <v>510201050001</v>
       </c>
       <c r="B344" t="s">
@@ -10797,7 +10801,7 @@
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345">
+      <c r="A345" s="4">
         <v>510201050002</v>
       </c>
       <c r="B345" t="s">
@@ -10823,7 +10827,7 @@
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A346">
+      <c r="A346" s="4">
         <v>510201050004</v>
       </c>
       <c r="B346" t="s">
@@ -10849,7 +10853,7 @@
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A347">
+      <c r="A347" s="4">
         <v>51020109</v>
       </c>
       <c r="B347" t="s">
@@ -10875,7 +10879,7 @@
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A348">
+      <c r="A348" s="4">
         <v>510201090001</v>
       </c>
       <c r="B348" t="s">
@@ -10901,7 +10905,7 @@
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A349">
+      <c r="A349" s="4">
         <v>510202</v>
       </c>
       <c r="B349" t="s">
@@ -10927,7 +10931,7 @@
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A350">
+      <c r="A350" s="4">
         <v>51020201</v>
       </c>
       <c r="B350" t="s">
@@ -10953,7 +10957,7 @@
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A351">
+      <c r="A351" s="4">
         <v>510202010001</v>
       </c>
       <c r="B351" t="s">
@@ -10979,7 +10983,7 @@
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A352">
+      <c r="A352" s="4">
         <v>510202010002</v>
       </c>
       <c r="B352" t="s">
@@ -11005,7 +11009,7 @@
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353">
+      <c r="A353" s="4">
         <v>510202010003</v>
       </c>
       <c r="B353" t="s">
@@ -11031,7 +11035,7 @@
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354">
+      <c r="A354" s="4">
         <v>510202010004</v>
       </c>
       <c r="B354" t="s">
@@ -11057,7 +11061,7 @@
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A355">
+      <c r="A355" s="4">
         <v>510202010005</v>
       </c>
       <c r="B355" t="s">
@@ -11083,7 +11087,7 @@
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356">
+      <c r="A356" s="4">
         <v>510202010006</v>
       </c>
       <c r="B356" t="s">
@@ -11109,7 +11113,7 @@
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A357">
+      <c r="A357" s="4">
         <v>510202010007</v>
       </c>
       <c r="B357" t="s">
@@ -11135,7 +11139,7 @@
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A358">
+      <c r="A358" s="4">
         <v>510202010008</v>
       </c>
       <c r="B358" t="s">
@@ -11161,7 +11165,7 @@
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A359">
+      <c r="A359" s="4">
         <v>510202010009</v>
       </c>
       <c r="B359" t="s">
@@ -11187,7 +11191,7 @@
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360">
+      <c r="A360" s="4">
         <v>510202010010</v>
       </c>
       <c r="B360" t="s">
@@ -11213,7 +11217,7 @@
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A361">
+      <c r="A361" s="4">
         <v>510202010011</v>
       </c>
       <c r="B361" t="s">
@@ -11239,7 +11243,7 @@
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A362">
+      <c r="A362" s="4">
         <v>510202010014</v>
       </c>
       <c r="B362" t="s">
@@ -11265,7 +11269,7 @@
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363">
+      <c r="A363" s="4">
         <v>51020202</v>
       </c>
       <c r="B363" t="s">
@@ -11291,7 +11295,7 @@
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A364">
+      <c r="A364" s="4">
         <v>510202020001</v>
       </c>
       <c r="B364" t="s">
@@ -11317,7 +11321,7 @@
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365">
+      <c r="A365" s="4">
         <v>510202020003</v>
       </c>
       <c r="B365" t="s">
@@ -11343,7 +11347,7 @@
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A366">
+      <c r="A366" s="4">
         <v>510202020004</v>
       </c>
       <c r="B366" t="s">
@@ -11369,7 +11373,7 @@
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A367">
+      <c r="A367" s="4">
         <v>510202020005</v>
       </c>
       <c r="B367" t="s">
@@ -11395,7 +11399,7 @@
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A368">
+      <c r="A368" s="4">
         <v>510202020006</v>
       </c>
       <c r="B368" t="s">
@@ -11421,7 +11425,7 @@
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A369">
+      <c r="A369" s="4">
         <v>510202020007</v>
       </c>
       <c r="B369" t="s">
@@ -11447,7 +11451,7 @@
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A370">
+      <c r="A370" s="4">
         <v>510202020008</v>
       </c>
       <c r="B370" t="s">
@@ -11473,7 +11477,7 @@
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A371">
+      <c r="A371" s="4">
         <v>510202020009</v>
       </c>
       <c r="B371" t="s">
@@ -11499,7 +11503,7 @@
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A372">
+      <c r="A372" s="4">
         <v>51020203</v>
       </c>
       <c r="B372" t="s">
@@ -11525,7 +11529,7 @@
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A373">
+      <c r="A373" s="4">
         <v>510202030002</v>
       </c>
       <c r="B373" t="s">
@@ -11551,7 +11555,7 @@
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A374">
+      <c r="A374" s="4">
         <v>510202030003</v>
       </c>
       <c r="B374" t="s">
@@ -11577,7 +11581,7 @@
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A375">
+      <c r="A375" s="4">
         <v>510202030004</v>
       </c>
       <c r="B375" t="s">
@@ -11603,7 +11607,7 @@
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A376">
+      <c r="A376" s="4">
         <v>510202030005</v>
       </c>
       <c r="B376" t="s">
@@ -11629,7 +11633,7 @@
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A377">
+      <c r="A377" s="4">
         <v>510202030008</v>
       </c>
       <c r="B377" t="s">
@@ -11655,7 +11659,7 @@
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A378">
+      <c r="A378" s="4">
         <v>51020205</v>
       </c>
       <c r="B378" t="s">
@@ -11681,7 +11685,7 @@
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A379">
+      <c r="A379" s="4">
         <v>510202050001</v>
       </c>
       <c r="B379" t="s">
@@ -11707,7 +11711,7 @@
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A380">
+      <c r="A380" s="4">
         <v>510202050003</v>
       </c>
       <c r="B380" t="s">
@@ -11733,7 +11737,7 @@
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A381">
+      <c r="A381" s="4">
         <v>510202050004</v>
       </c>
       <c r="B381" t="s">
@@ -11759,7 +11763,7 @@
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A382">
+      <c r="A382" s="4">
         <v>510202050005</v>
       </c>
       <c r="B382" t="s">
@@ -11785,7 +11789,7 @@
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A383">
+      <c r="A383" s="4">
         <v>510202050006</v>
       </c>
       <c r="B383" t="s">
@@ -11811,7 +11815,7 @@
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A384">
+      <c r="A384" s="4">
         <v>510202050007</v>
       </c>
       <c r="B384" t="s">
@@ -11837,7 +11841,7 @@
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A385">
+      <c r="A385" s="4">
         <v>510202050010</v>
       </c>
       <c r="B385" t="s">
@@ -11863,7 +11867,7 @@
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A386">
+      <c r="A386" s="4">
         <v>510202050012</v>
       </c>
       <c r="B386" t="s">
@@ -11889,7 +11893,7 @@
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A387">
+      <c r="A387" s="4">
         <v>510202050013</v>
       </c>
       <c r="B387" t="s">
@@ -11915,7 +11919,7 @@
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A388">
+      <c r="A388" s="4">
         <v>510202050014</v>
       </c>
       <c r="B388" t="s">
@@ -11941,7 +11945,7 @@
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A389">
+      <c r="A389" s="4">
         <v>510202050015</v>
       </c>
       <c r="B389" t="s">
@@ -11967,7 +11971,7 @@
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A390">
+      <c r="A390" s="4">
         <v>510202050016</v>
       </c>
       <c r="B390" t="s">
@@ -11993,7 +11997,7 @@
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A391">
+      <c r="A391" s="4">
         <v>510202050017</v>
       </c>
       <c r="B391" t="s">
@@ -12019,7 +12023,7 @@
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A392">
+      <c r="A392" s="4">
         <v>510202050022</v>
       </c>
       <c r="B392" t="s">
@@ -12045,7 +12049,7 @@
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A393">
+      <c r="A393" s="4">
         <v>510202050023</v>
       </c>
       <c r="B393" t="s">
@@ -12071,7 +12075,7 @@
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A394">
+      <c r="A394" s="4">
         <v>510202050025</v>
       </c>
       <c r="B394" t="s">
@@ -12097,7 +12101,7 @@
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A395">
+      <c r="A395" s="4">
         <v>510202050027</v>
       </c>
       <c r="B395" t="s">
@@ -12123,7 +12127,7 @@
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A396">
+      <c r="A396" s="4">
         <v>510202050028</v>
       </c>
       <c r="B396" t="s">
@@ -12149,7 +12153,7 @@
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A397">
+      <c r="A397" s="4">
         <v>510202050029</v>
       </c>
       <c r="B397" t="s">
@@ -12175,7 +12179,7 @@
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A398">
+      <c r="A398" s="4">
         <v>510202050030</v>
       </c>
       <c r="B398" t="s">
@@ -12201,7 +12205,7 @@
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A399">
+      <c r="A399" s="4">
         <v>510202050032</v>
       </c>
       <c r="B399" t="s">
@@ -12227,7 +12231,7 @@
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A400">
+      <c r="A400" s="4">
         <v>510202050033</v>
       </c>
       <c r="B400" t="s">
@@ -12253,7 +12257,7 @@
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A401">
+      <c r="A401" s="4">
         <v>510202050034</v>
       </c>
       <c r="B401" t="s">
@@ -12279,7 +12283,7 @@
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A402">
+      <c r="A402" s="4">
         <v>510202050035</v>
       </c>
       <c r="B402" t="s">
@@ -12305,7 +12309,7 @@
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A403">
+      <c r="A403" s="4">
         <v>510202050036</v>
       </c>
       <c r="B403" t="s">
@@ -12331,7 +12335,7 @@
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A404">
+      <c r="A404" s="4">
         <v>510202050037</v>
       </c>
       <c r="B404" t="s">
@@ -12357,7 +12361,7 @@
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A405">
+      <c r="A405" s="4">
         <v>510202050040</v>
       </c>
       <c r="B405" t="s">
@@ -12383,7 +12387,7 @@
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A406">
+      <c r="A406" s="4">
         <v>510202050041</v>
       </c>
       <c r="B406" t="s">
@@ -12409,7 +12413,7 @@
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A407">
+      <c r="A407" s="4">
         <v>510202050042</v>
       </c>
       <c r="B407" t="s">
@@ -12435,7 +12439,7 @@
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A408">
+      <c r="A408" s="4">
         <v>510202050043</v>
       </c>
       <c r="B408" t="s">
@@ -12461,7 +12465,7 @@
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A409">
+      <c r="A409" s="4">
         <v>510202050044</v>
       </c>
       <c r="B409" t="s">
@@ -12487,7 +12491,7 @@
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A410">
+      <c r="A410" s="4">
         <v>510202050046</v>
       </c>
       <c r="B410" t="s">
@@ -12513,7 +12517,7 @@
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A411">
+      <c r="A411" s="4">
         <v>510202050047</v>
       </c>
       <c r="B411" t="s">
@@ -12539,7 +12543,7 @@
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A412">
+      <c r="A412" s="4">
         <v>510202050049</v>
       </c>
       <c r="B412" t="s">
@@ -12565,7 +12569,7 @@
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A413">
+      <c r="A413" s="4">
         <v>510202050050</v>
       </c>
       <c r="B413" t="s">
@@ -12591,7 +12595,7 @@
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A414">
+      <c r="A414" s="4">
         <v>510202050051</v>
       </c>
       <c r="B414" t="s">
@@ -12617,7 +12621,7 @@
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A415">
+      <c r="A415" s="4">
         <v>51020209</v>
       </c>
       <c r="B415" t="s">
@@ -12643,7 +12647,7 @@
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A416">
+      <c r="A416" s="4">
         <v>510202090001</v>
       </c>
       <c r="B416" t="s">
@@ -12669,7 +12673,7 @@
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A417">
+      <c r="A417" s="4">
         <v>5103</v>
       </c>
       <c r="B417" t="s">
@@ -12695,7 +12699,7 @@
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A418">
+      <c r="A418" s="4">
         <v>510301</v>
       </c>
       <c r="B418" t="s">
@@ -12721,7 +12725,7 @@
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A419">
+      <c r="A419" s="4">
         <v>51030101</v>
       </c>
       <c r="B419" t="s">
@@ -12747,7 +12751,7 @@
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A420">
+      <c r="A420" s="4">
         <v>510301010002</v>
       </c>
       <c r="B420" t="s">
@@ -12773,7 +12777,7 @@
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A421">
+      <c r="A421" s="4">
         <v>510302</v>
       </c>
       <c r="B421" t="s">
@@ -12799,7 +12803,7 @@
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A422">
+      <c r="A422" s="4">
         <v>51030201</v>
       </c>
       <c r="B422" t="s">
@@ -12825,7 +12829,7 @@
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A423">
+      <c r="A423" s="4">
         <v>510302010002</v>
       </c>
       <c r="B423" t="s">
@@ -12851,7 +12855,7 @@
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A424">
+      <c r="A424" s="4">
         <v>510302010099</v>
       </c>
       <c r="B424" t="s">
@@ -12877,7 +12881,7 @@
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A425">
+      <c r="A425" s="4">
         <v>52</v>
       </c>
       <c r="B425" t="s">
@@ -12903,7 +12907,7 @@
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A426">
+      <c r="A426" s="4">
         <v>5201</v>
       </c>
       <c r="B426" t="s">
@@ -12929,7 +12933,7 @@
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A427">
+      <c r="A427" s="4">
         <v>520101</v>
       </c>
       <c r="B427" t="s">
@@ -12955,7 +12959,7 @@
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A428">
+      <c r="A428" s="4">
         <v>52010101</v>
       </c>
       <c r="B428" t="s">
@@ -12981,7 +12985,7 @@
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A429">
+      <c r="A429" s="4">
         <v>520101010001</v>
       </c>
       <c r="B429" t="s">
@@ -13007,7 +13011,7 @@
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A430">
+      <c r="A430" s="4">
         <v>520101010002</v>
       </c>
       <c r="B430" t="s">
@@ -13033,7 +13037,7 @@
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A431">
+      <c r="A431" s="4">
         <v>520101010003</v>
       </c>
       <c r="B431" t="s">
@@ -13059,7 +13063,7 @@
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A432">
+      <c r="A432" s="4">
         <v>520101010004</v>
       </c>
       <c r="B432" t="s">
@@ -13085,7 +13089,7 @@
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A433">
+      <c r="A433" s="4">
         <v>520101010005</v>
       </c>
       <c r="B433" t="s">
@@ -13111,7 +13115,7 @@
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A434">
+      <c r="A434" s="4">
         <v>520101010006</v>
       </c>
       <c r="B434" t="s">
@@ -13137,7 +13141,7 @@
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A435">
+      <c r="A435" s="4">
         <v>520101010007</v>
       </c>
       <c r="B435" t="s">
@@ -13163,7 +13167,7 @@
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A436">
+      <c r="A436" s="4">
         <v>520101010008</v>
       </c>
       <c r="B436" t="s">
@@ -13189,7 +13193,7 @@
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A437">
+      <c r="A437" s="4">
         <v>520101010009</v>
       </c>
       <c r="B437" t="s">
@@ -13215,7 +13219,7 @@
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A438">
+      <c r="A438" s="4">
         <v>520101010012</v>
       </c>
       <c r="B438" t="s">
@@ -13241,7 +13245,7 @@
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A439">
+      <c r="A439" s="4">
         <v>52010102</v>
       </c>
       <c r="B439" t="s">
@@ -13267,7 +13271,7 @@
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A440">
+      <c r="A440" s="4">
         <v>520101020002</v>
       </c>
       <c r="B440" t="s">
@@ -13293,7 +13297,7 @@
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A441">
+      <c r="A441" s="4">
         <v>520101020006</v>
       </c>
       <c r="B441" t="s">
@@ -13319,7 +13323,7 @@
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A442">
+      <c r="A442" s="4">
         <v>520101020008</v>
       </c>
       <c r="B442" t="s">
@@ -13345,7 +13349,7 @@
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A443">
+      <c r="A443" s="4">
         <v>52010103</v>
       </c>
       <c r="B443" t="s">
@@ -13371,7 +13375,7 @@
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A444">
+      <c r="A444" s="4">
         <v>520101030002</v>
       </c>
       <c r="B444" t="s">
@@ -13397,7 +13401,7 @@
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A445">
+      <c r="A445" s="4">
         <v>520101030003</v>
       </c>
       <c r="B445" t="s">
@@ -13423,7 +13427,7 @@
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A446">
+      <c r="A446" s="4">
         <v>520101030004</v>
       </c>
       <c r="B446" t="s">
@@ -13449,7 +13453,7 @@
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A447">
+      <c r="A447" s="4">
         <v>520101030005</v>
       </c>
       <c r="B447" t="s">
@@ -13475,7 +13479,7 @@
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A448">
+      <c r="A448" s="4">
         <v>520101030007</v>
       </c>
       <c r="B448" t="s">
@@ -13501,7 +13505,7 @@
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A449">
+      <c r="A449" s="4">
         <v>520101030008</v>
       </c>
       <c r="B449" t="s">
@@ -13527,7 +13531,7 @@
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A450">
+      <c r="A450" s="4">
         <v>520101030009</v>
       </c>
       <c r="B450" t="s">
@@ -13553,7 +13557,7 @@
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A451">
+      <c r="A451" s="4">
         <v>520101030011</v>
       </c>
       <c r="B451" t="s">
@@ -13579,7 +13583,7 @@
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A452">
+      <c r="A452" s="4">
         <v>520101030012</v>
       </c>
       <c r="B452" t="s">
@@ -13605,7 +13609,7 @@
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A453">
+      <c r="A453" s="4">
         <v>520101030013</v>
       </c>
       <c r="B453" t="s">
@@ -13631,7 +13635,7 @@
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A454">
+      <c r="A454" s="4">
         <v>520101030014</v>
       </c>
       <c r="B454" t="s">
@@ -13657,7 +13661,7 @@
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A455">
+      <c r="A455" s="4">
         <v>520101030015</v>
       </c>
       <c r="B455" t="s">
@@ -13683,7 +13687,7 @@
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A456">
+      <c r="A456" s="4">
         <v>520101030016</v>
       </c>
       <c r="B456" t="s">
@@ -13709,7 +13713,7 @@
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A457">
+      <c r="A457" s="4">
         <v>520101030017</v>
       </c>
       <c r="B457" t="s">
@@ -13735,7 +13739,7 @@
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A458">
+      <c r="A458" s="4">
         <v>520101030018</v>
       </c>
       <c r="B458" t="s">
@@ -13761,7 +13765,7 @@
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A459">
+      <c r="A459" s="4">
         <v>520101030020</v>
       </c>
       <c r="B459" t="s">
@@ -13787,7 +13791,7 @@
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A460">
+      <c r="A460" s="4">
         <v>520101030021</v>
       </c>
       <c r="B460" t="s">
@@ -13813,7 +13817,7 @@
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A461">
+      <c r="A461" s="4">
         <v>520101030022</v>
       </c>
       <c r="B461" t="s">
@@ -13839,7 +13843,7 @@
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A462">
+      <c r="A462" s="4">
         <v>520101030023</v>
       </c>
       <c r="B462" t="s">
@@ -13865,7 +13869,7 @@
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A463">
+      <c r="A463" s="4">
         <v>520101030024</v>
       </c>
       <c r="B463" t="s">
@@ -13891,7 +13895,7 @@
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A464">
+      <c r="A464" s="4">
         <v>5202</v>
       </c>
       <c r="B464" t="s">
@@ -13917,7 +13921,7 @@
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A465">
+      <c r="A465" s="4">
         <v>520201</v>
       </c>
       <c r="B465" t="s">
@@ -13943,7 +13947,7 @@
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A466">
+      <c r="A466" s="4">
         <v>52020101</v>
       </c>
       <c r="B466" t="s">
@@ -13969,7 +13973,7 @@
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A467">
+      <c r="A467" s="4">
         <v>520201010001</v>
       </c>
       <c r="B467" t="s">
@@ -13995,7 +13999,7 @@
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A468">
+      <c r="A468" s="4">
         <v>520201010002</v>
       </c>
       <c r="B468" t="s">
@@ -14021,7 +14025,7 @@
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A469">
+      <c r="A469" s="4">
         <v>520201010003</v>
       </c>
       <c r="B469" t="s">
@@ -14047,7 +14051,7 @@
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A470">
+      <c r="A470" s="4">
         <v>520201010004</v>
       </c>
       <c r="B470" t="s">
@@ -14073,7 +14077,7 @@
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A471">
+      <c r="A471" s="4">
         <v>520201010005</v>
       </c>
       <c r="B471" t="s">
@@ -14099,7 +14103,7 @@
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A472">
+      <c r="A472" s="4">
         <v>520201010006</v>
       </c>
       <c r="B472" t="s">
@@ -14125,7 +14129,7 @@
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A473">
+      <c r="A473" s="4">
         <v>520201010007</v>
       </c>
       <c r="B473" t="s">
@@ -14151,7 +14155,7 @@
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A474">
+      <c r="A474" s="4">
         <v>520201010008</v>
       </c>
       <c r="B474" t="s">
@@ -14177,7 +14181,7 @@
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A475">
+      <c r="A475" s="4">
         <v>520201010010</v>
       </c>
       <c r="B475" t="s">
@@ -14203,7 +14207,7 @@
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A476">
+      <c r="A476" s="4">
         <v>520201010011</v>
       </c>
       <c r="B476" t="s">
@@ -14229,7 +14233,7 @@
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A477">
+      <c r="A477" s="4">
         <v>52020102</v>
       </c>
       <c r="B477" t="s">
@@ -14255,7 +14259,7 @@
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A478">
+      <c r="A478" s="4">
         <v>520201020002</v>
       </c>
       <c r="B478" t="s">
@@ -14281,7 +14285,7 @@
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A479">
+      <c r="A479" s="4">
         <v>520201020003</v>
       </c>
       <c r="B479" t="s">
@@ -14307,7 +14311,7 @@
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A480">
+      <c r="A480" s="4">
         <v>520201020004</v>
       </c>
       <c r="B480" t="s">
@@ -14333,7 +14337,7 @@
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A481">
+      <c r="A481" s="4">
         <v>520201020005</v>
       </c>
       <c r="B481" t="s">
@@ -14359,7 +14363,7 @@
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A482">
+      <c r="A482" s="4">
         <v>520201020006</v>
       </c>
       <c r="B482" t="s">
@@ -14385,7 +14389,7 @@
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A483">
+      <c r="A483" s="4">
         <v>520201020007</v>
       </c>
       <c r="B483" t="s">
@@ -14411,7 +14415,7 @@
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A484">
+      <c r="A484" s="4">
         <v>520201020008</v>
       </c>
       <c r="B484" t="s">
@@ -14437,7 +14441,7 @@
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A485">
+      <c r="A485" s="4">
         <v>520202</v>
       </c>
       <c r="B485" t="s">
@@ -14463,7 +14467,7 @@
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A486">
+      <c r="A486" s="4">
         <v>52020201</v>
       </c>
       <c r="B486" t="s">
@@ -14489,7 +14493,7 @@
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A487">
+      <c r="A487" s="4">
         <v>520202010001</v>
       </c>
       <c r="B487" t="s">
@@ -14515,7 +14519,7 @@
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A488">
+      <c r="A488" s="4">
         <v>520202010005</v>
       </c>
       <c r="B488" t="s">
@@ -14541,7 +14545,7 @@
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A489">
+      <c r="A489" s="4">
         <v>520203</v>
       </c>
       <c r="B489" t="s">
@@ -14567,7 +14571,7 @@
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A490">
+      <c r="A490" s="4">
         <v>52020301</v>
       </c>
       <c r="B490" t="s">
@@ -14593,7 +14597,7 @@
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A491">
+      <c r="A491" s="4">
         <v>520203010001</v>
       </c>
       <c r="B491" t="s">
@@ -14619,7 +14623,7 @@
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A492">
+      <c r="A492" s="4">
         <v>520203010002</v>
       </c>
       <c r="B492" t="s">
@@ -14645,7 +14649,7 @@
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A493">
+      <c r="A493" s="4">
         <v>520203010003</v>
       </c>
       <c r="B493" t="s">
@@ -14671,7 +14675,7 @@
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A494">
+      <c r="A494" s="4">
         <v>520203010004</v>
       </c>
       <c r="B494" t="s">
@@ -14697,7 +14701,7 @@
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A495">
+      <c r="A495" s="4">
         <v>520203010005</v>
       </c>
       <c r="B495" t="s">
@@ -14723,7 +14727,7 @@
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A496">
+      <c r="A496" s="4">
         <v>520203010007</v>
       </c>
       <c r="B496" t="s">
@@ -14749,7 +14753,7 @@
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A497">
+      <c r="A497" s="4">
         <v>520204</v>
       </c>
       <c r="B497" t="s">
@@ -14775,7 +14779,7 @@
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A498">
+      <c r="A498" s="4">
         <v>52020401</v>
       </c>
       <c r="B498" t="s">
@@ -14801,7 +14805,7 @@
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A499">
+      <c r="A499" s="4">
         <v>520204010002</v>
       </c>
       <c r="B499" t="s">
@@ -14827,7 +14831,7 @@
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A500">
+      <c r="A500" s="4">
         <v>520204010004</v>
       </c>
       <c r="B500" t="s">
@@ -14853,7 +14857,7 @@
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A501">
+      <c r="A501" s="4">
         <v>520204010007</v>
       </c>
       <c r="B501" t="s">
@@ -14879,7 +14883,7 @@
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A502">
+      <c r="A502" s="4">
         <v>520205</v>
       </c>
       <c r="B502" t="s">
@@ -14905,7 +14909,7 @@
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A503">
+      <c r="A503" s="4">
         <v>52020501</v>
       </c>
       <c r="B503" t="s">
@@ -14931,7 +14935,7 @@
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A504">
+      <c r="A504" s="4">
         <v>520205010001</v>
       </c>
       <c r="B504" t="s">
@@ -14957,7 +14961,7 @@
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A505">
+      <c r="A505" s="4">
         <v>520205010002</v>
       </c>
       <c r="B505" t="s">
@@ -14983,7 +14987,7 @@
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A506">
+      <c r="A506" s="4">
         <v>520205010003</v>
       </c>
       <c r="B506" t="s">
@@ -15009,7 +15013,7 @@
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A507">
+      <c r="A507" s="4">
         <v>520205010004</v>
       </c>
       <c r="B507" t="s">
@@ -15035,7 +15039,7 @@
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A508">
+      <c r="A508" s="4">
         <v>520205010005</v>
       </c>
       <c r="B508" t="s">
@@ -15061,7 +15065,7 @@
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A509">
+      <c r="A509" s="4">
         <v>520205010006</v>
       </c>
       <c r="B509" t="s">
@@ -15087,7 +15091,7 @@
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A510">
+      <c r="A510" s="4">
         <v>520205010007</v>
       </c>
       <c r="B510" t="s">
@@ -15113,7 +15117,7 @@
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A511">
+      <c r="A511" s="4">
         <v>520205010008</v>
       </c>
       <c r="B511" t="s">
@@ -15139,7 +15143,7 @@
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A512">
+      <c r="A512" s="4">
         <v>520205010009</v>
       </c>
       <c r="B512" t="s">
@@ -15165,7 +15169,7 @@
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A513">
+      <c r="A513" s="4">
         <v>520205010010</v>
       </c>
       <c r="B513" t="s">
@@ -15191,7 +15195,7 @@
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A514">
+      <c r="A514" s="4">
         <v>520205010011</v>
       </c>
       <c r="B514" t="s">
@@ -15217,7 +15221,7 @@
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A515">
+      <c r="A515" s="4">
         <v>520205010012</v>
       </c>
       <c r="B515" t="s">
@@ -15243,7 +15247,7 @@
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A516">
+      <c r="A516" s="4">
         <v>520205010013</v>
       </c>
       <c r="B516" t="s">
@@ -15269,7 +15273,7 @@
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A517">
+      <c r="A517" s="4">
         <v>520205010014</v>
       </c>
       <c r="B517" t="s">
@@ -15295,7 +15299,7 @@
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A518">
+      <c r="A518" s="4">
         <v>520205010015</v>
       </c>
       <c r="B518" t="s">
@@ -15321,7 +15325,7 @@
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A519">
+      <c r="A519" s="4">
         <v>520205010016</v>
       </c>
       <c r="B519" t="s">
@@ -15347,7 +15351,7 @@
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A520">
+      <c r="A520" s="4">
         <v>520205010018</v>
       </c>
       <c r="B520" t="s">
@@ -15373,7 +15377,7 @@
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A521">
+      <c r="A521" s="4">
         <v>520205010020</v>
       </c>
       <c r="B521" t="s">
@@ -15399,7 +15403,7 @@
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A522">
+      <c r="A522" s="4">
         <v>520205010022</v>
       </c>
       <c r="B522" t="s">
@@ -15425,7 +15429,7 @@
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A523">
+      <c r="A523" s="4">
         <v>520205010023</v>
       </c>
       <c r="B523" t="s">
@@ -15451,7 +15455,7 @@
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A524">
+      <c r="A524" s="4">
         <v>520205010024</v>
       </c>
       <c r="B524" t="s">
@@ -15477,7 +15481,7 @@
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A525">
+      <c r="A525" s="4">
         <v>520205010026</v>
       </c>
       <c r="B525" t="s">
@@ -15503,7 +15507,7 @@
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A526">
+      <c r="A526" s="4">
         <v>520205010027</v>
       </c>
       <c r="B526" t="s">
@@ -15529,7 +15533,7 @@
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A527">
+      <c r="A527" s="4">
         <v>520205010030</v>
       </c>
       <c r="B527" t="s">
@@ -15555,7 +15559,7 @@
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A528">
+      <c r="A528" s="4">
         <v>520205010031</v>
       </c>
       <c r="B528" t="s">
@@ -15581,7 +15585,7 @@
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A529">
+      <c r="A529" s="4">
         <v>520205010036</v>
       </c>
       <c r="B529" t="s">
@@ -15607,7 +15611,7 @@
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A530">
+      <c r="A530" s="4">
         <v>520205010037</v>
       </c>
       <c r="B530" t="s">
@@ -15633,7 +15637,7 @@
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A531">
+      <c r="A531" s="4">
         <v>520205010039</v>
       </c>
       <c r="B531" t="s">
@@ -15659,7 +15663,7 @@
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A532">
+      <c r="A532" s="4">
         <v>520205010040</v>
       </c>
       <c r="B532" t="s">
@@ -15685,7 +15689,7 @@
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A533">
+      <c r="A533" s="4">
         <v>520206</v>
       </c>
       <c r="B533" t="s">
@@ -15711,7 +15715,7 @@
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A534">
+      <c r="A534" s="4">
         <v>52020601</v>
       </c>
       <c r="B534" t="s">
@@ -15737,7 +15741,7 @@
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A535">
+      <c r="A535" s="4">
         <v>520206010001</v>
       </c>
       <c r="B535" t="s">
@@ -15763,7 +15767,7 @@
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A536">
+      <c r="A536" s="4">
         <v>520206010002</v>
       </c>
       <c r="B536" t="s">
@@ -15789,7 +15793,7 @@
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A537">
+      <c r="A537" s="4">
         <v>520206010004</v>
       </c>
       <c r="B537" t="s">
@@ -15815,7 +15819,7 @@
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A538">
+      <c r="A538" s="4">
         <v>520206010005</v>
       </c>
       <c r="B538" t="s">
@@ -15841,7 +15845,7 @@
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A539">
+      <c r="A539" s="4">
         <v>520206010006</v>
       </c>
       <c r="B539" t="s">
@@ -15867,7 +15871,7 @@
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A540">
+      <c r="A540" s="4">
         <v>520206010008</v>
       </c>
       <c r="B540" t="s">
@@ -15893,7 +15897,7 @@
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A541">
+      <c r="A541" s="4">
         <v>520207</v>
       </c>
       <c r="B541" t="s">
@@ -15919,7 +15923,7 @@
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A542">
+      <c r="A542" s="4">
         <v>52020701</v>
       </c>
       <c r="B542" t="s">
@@ -15945,7 +15949,7 @@
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A543">
+      <c r="A543" s="4">
         <v>520207010001</v>
       </c>
       <c r="B543" t="s">
@@ -15971,7 +15975,7 @@
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A544">
+      <c r="A544" s="4">
         <v>520207010003</v>
       </c>
       <c r="B544" t="s">
@@ -15997,7 +16001,7 @@
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A545">
+      <c r="A545" s="4">
         <v>520207010004</v>
       </c>
       <c r="B545" t="s">
@@ -16023,7 +16027,7 @@
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A546">
+      <c r="A546" s="4">
         <v>520207010005</v>
       </c>
       <c r="B546" t="s">
@@ -16049,7 +16053,7 @@
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A547">
+      <c r="A547" s="4">
         <v>520207010007</v>
       </c>
       <c r="B547" t="s">
@@ -16075,7 +16079,7 @@
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A548">
+      <c r="A548" s="4">
         <v>5203</v>
       </c>
       <c r="B548" t="s">
@@ -16101,7 +16105,7 @@
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A549">
+      <c r="A549" s="4">
         <v>520301</v>
       </c>
       <c r="B549" t="s">
@@ -16127,7 +16131,7 @@
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A550">
+      <c r="A550" s="4">
         <v>52030101</v>
       </c>
       <c r="B550" t="s">
@@ -16153,7 +16157,7 @@
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A551">
+      <c r="A551" s="4">
         <v>520301010002</v>
       </c>
       <c r="B551" t="s">
@@ -16179,7 +16183,7 @@
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A552">
+      <c r="A552" s="4">
         <v>52030102</v>
       </c>
       <c r="B552" t="s">
@@ -16205,7 +16209,7 @@
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A553">
+      <c r="A553" s="4">
         <v>520301020001</v>
       </c>
       <c r="B553" t="s">
@@ -16231,7 +16235,7 @@
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A554">
+      <c r="A554" s="4">
         <v>520301020002</v>
       </c>
       <c r="B554" t="s">
@@ -16257,7 +16261,7 @@
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A555">
+      <c r="A555" s="4">
         <v>54</v>
       </c>
       <c r="B555" t="s">
@@ -16283,7 +16287,7 @@
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A556">
+      <c r="A556" s="4">
         <v>5401</v>
       </c>
       <c r="B556" t="s">
@@ -16309,7 +16313,7 @@
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A557">
+      <c r="A557" s="4">
         <v>540101</v>
       </c>
       <c r="B557" t="s">
@@ -16335,7 +16339,7 @@
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A558">
+      <c r="A558" s="4">
         <v>54010103</v>
       </c>
       <c r="B558" t="s">
@@ -16361,7 +16365,7 @@
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A559">
+      <c r="A559" s="4">
         <v>540101030008</v>
       </c>
       <c r="B559" t="s">
@@ -16387,7 +16391,7 @@
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A560">
+      <c r="A560" s="4">
         <v>540101030010</v>
       </c>
       <c r="B560" t="s">
@@ -16413,7 +16417,7 @@
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A561">
+      <c r="A561" s="4">
         <v>540101030011</v>
       </c>
       <c r="B561" t="s">
@@ -16439,7 +16443,7 @@
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A562">
+      <c r="A562" s="4">
         <v>540101030012</v>
       </c>
       <c r="B562" t="s">
@@ -16465,7 +16469,7 @@
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A563">
+      <c r="A563" s="4">
         <v>54010104</v>
       </c>
       <c r="B563" t="s">
@@ -16491,7 +16495,7 @@
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A564">
+      <c r="A564" s="4">
         <v>540101040009</v>
       </c>
       <c r="B564" t="s">
@@ -16517,7 +16521,7 @@
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A565">
+      <c r="A565" s="4">
         <v>540101040013</v>
       </c>
       <c r="B565" t="s">
@@ -16543,7 +16547,7 @@
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A566">
+      <c r="A566" s="4">
         <v>9</v>
       </c>
       <c r="B566" t="s">
@@ -16569,7 +16573,7 @@
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A567">
+      <c r="A567" s="4">
         <v>91</v>
       </c>
       <c r="B567" t="s">
@@ -16595,7 +16599,7 @@
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A568">
+      <c r="A568" s="4">
         <v>9101</v>
       </c>
       <c r="B568" t="s">
@@ -16621,7 +16625,7 @@
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A569">
+      <c r="A569" s="4">
         <v>910101</v>
       </c>
       <c r="B569" t="s">
@@ -16647,7 +16651,7 @@
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A570">
+      <c r="A570" s="4">
         <v>9101010001</v>
       </c>
       <c r="B570" t="s">
@@ -16673,7 +16677,7 @@
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A571">
+      <c r="A571" s="4">
         <v>92</v>
       </c>
       <c r="B571" t="s">
@@ -16699,7 +16703,7 @@
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A572">
+      <c r="A572" s="4">
         <v>9201</v>
       </c>
       <c r="B572" t="s">
@@ -16725,7 +16729,7 @@
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A573">
+      <c r="A573" s="4">
         <v>920101</v>
       </c>
       <c r="B573" t="s">
@@ -16751,7 +16755,7 @@
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A574">
+      <c r="A574" s="4">
         <v>9201010001</v>
       </c>
       <c r="B574" t="s">
